--- a/data/trans_dic/iP30B7_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30B7_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>52,15%</t>
+          <t>32,47%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>57,26%</t>
+          <t>44,16%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>54,38%</t>
+          <t>39,3%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>45,93; 57,77</t>
+          <t>13,73; 57,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50,57; 63,71</t>
+          <t>24,92; 64,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>49,88; 58,73</t>
+          <t>26,23; 55,37</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>62,4%</t>
+          <t>52,15%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>67,38%</t>
+          <t>57,26%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>64,87%</t>
+          <t>54,38%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>56,04; 68,18</t>
+          <t>45,93; 57,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>60,67; 73,05</t>
+          <t>50,57; 63,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>60,7; 69,22</t>
+          <t>49,88; 58,73</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>32,47%</t>
+          <t>46,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>49,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>39,3%</t>
+          <t>47,95%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,73; 57,76</t>
+          <t>39,41; 54,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,92; 64,34</t>
+          <t>39,75; 56,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,23; 55,37</t>
+          <t>42,12; 53,93</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>46,75%</t>
+          <t>62,4%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>49,19%</t>
+          <t>67,38%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>47,95%</t>
+          <t>64,87%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>39,41; 54,52</t>
+          <t>56,04; 68,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>39,75; 56,41</t>
+          <t>60,67; 73,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>42,12; 53,93</t>
+          <t>60,7; 69,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B7_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30B7_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>54,11; 71,32</t>
+          <t>53,32; 71,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,73; 64,8</t>
+          <t>48,33; 64,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>53,52; 65,87</t>
+          <t>54,01; 66,29</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>45,93; 57,77</t>
+          <t>45,97; 58,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,57; 63,71</t>
+          <t>51,23; 63,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>49,88; 58,73</t>
+          <t>50,08; 58,99</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,41; 54,52</t>
+          <t>39,15; 54,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,75; 56,41</t>
+          <t>40,74; 56,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,12; 53,93</t>
+          <t>42,3; 53,45</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>56,04; 68,18</t>
+          <t>55,98; 69,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>60,67; 73,05</t>
+          <t>61,03; 73,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>60,7; 69,22</t>
+          <t>60,53; 69,47</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>51,41; 58,69</t>
+          <t>51,22; 58,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>53,02; 60,57</t>
+          <t>53,31; 61,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>53,3; 58,58</t>
+          <t>53,41; 58,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
